--- a/Source/Systematic Review/Systematic Review searches/finalArticleList.xlsx
+++ b/Source/Systematic Review/Systematic Review searches/finalArticleList.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomar\Documents\PhD\Source\Systematic Review\Systematic Review searches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA12BF-C8B7-4C31-B893-E22A61961B13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F6E786-F664-4C92-84A6-9C30E6B8940C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="3495" windowWidth="21585" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finalArticleList" sheetId="1" r:id="rId1"/>
     <sheet name="Stage 2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1551">
   <si>
     <t>Title</t>
   </si>
@@ -5553,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6273,42 +6274,42 @@
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6408,7 +6409,7 @@
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="4" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -13302,10 +13303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13500,6 +13501,16 @@
         <v>1298</v>
       </c>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>1507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
